--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292415.8694691362</v>
+        <v>292183.9663971552</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.29513059</v>
+        <v>18601640.52608541</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386105</v>
+        <v>9135685.687344907</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5770645.091459217</v>
+        <v>5582961.889031195</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -665,10 +667,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>65.14012752163255</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>74.03169761275359</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>155.6273778768449</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -905,16 +907,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>46.46563710700903</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>86.31361320310437</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>111.1167712051832</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>106.8364187178475</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>18.38766003735405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1379,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914871</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.8938699731264</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1540,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>121.9815308269508</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>128.8925684673743</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>58.67748875058492</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429482</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.67748875058538</v>
+        <v>24.12958620662185</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>72.88989275927041</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399242</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>36.59294004931239</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>58.67748875058492</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2330,13 +2332,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>156.0927360923585</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>115.3288057180334</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2558,7 +2560,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>369.3705669668464</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>146.0691811270285</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>107.5474019937928</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>199.5832483630753</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>418.8993884506847</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>160.0987975363142</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2965,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>120.7719441066438</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>101.4889758443782</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3235,22 +3237,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>115.105571630339</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24.12958620662116</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>92.38090300811142</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3472,22 +3474,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>107.5474019937928</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3503,13 +3505,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>84.40674218853306</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>71.94762989914921</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031871</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>228.0996351671467</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>73.70641259348758</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.1295862066223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.3693391096935</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>164.7047943182444</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3192265349076</v>
+        <v>281.0278647211301</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1399.725618125737</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C2" t="n">
-        <v>972.8248881390371</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>549.5322673240373</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>549.5322673240373</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074144</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.573982417267</v>
+        <v>2150.131759924241</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>874.3078922751886</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L3" t="n">
-        <v>874.3078922751886</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M3" t="n">
-        <v>874.3078922751886</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N3" t="n">
-        <v>1424.973427259627</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4483,7 +4485,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4507,25 +4509,25 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V4" t="n">
-        <v>1701.387456188581</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1701.387456188581</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
         <v>1544.188084595808</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1805.062888170846</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C5" t="n">
-        <v>1805.062888170846</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.770267355847</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7933275037043</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>530.6691456931045</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>126.3300832825531</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2137.725784580452</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>1726.005785748199</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.911252462377</v>
+        <v>1320.668515703089</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M6" t="n">
-        <v>205.6899987133984</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>205.6899987133984</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>580.0300086977657</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C8" t="n">
-        <v>580.0300086977657</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D8" t="n">
-        <v>156.7373878827659</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>991.7500075300184</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="X8" t="n">
-        <v>580.0300086977657</v>
+        <v>1705.275679167651</v>
       </c>
       <c r="Y8" t="n">
-        <v>580.0300086977657</v>
+        <v>1299.938409122541</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.1397001855348</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>667.1671370644508</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>667.1671370644508</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>500.9589312173043</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>329.0971569918647</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>162.8401872860969</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4981,31 +4983,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1773.06473758954</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1498.212333762053</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1255.648437207858</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.305668897601</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1353.788838783518</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.788838783518</v>
+        <v>966.4421593518935</v>
       </c>
       <c r="D11" t="n">
-        <v>930.4962179685185</v>
+        <v>543.1495385368937</v>
       </c>
       <c r="E11" t="n">
-        <v>504.5192781163761</v>
+        <v>117.1725986847513</v>
       </c>
       <c r="F11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L11" t="n">
-        <v>407.101683866143</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M11" t="n">
-        <v>549.9383681074144</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>1765.508837615771</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X11" t="n">
-        <v>1353.788838783518</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y11" t="n">
-        <v>1353.788838783518</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5108,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M12" t="n">
-        <v>874.3078922751886</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N12" t="n">
-        <v>1424.973427259627</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O12" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P12" t="n">
         <v>1853.185855629757</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>339.5736667766577</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>167.7118925512181</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M13" t="n">
         <v>1074.392270743914</v>
@@ -5224,25 +5226,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.692738652656</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C14" t="n">
-        <v>174.692738652656</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D14" t="n">
-        <v>174.692738652656</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E14" t="n">
-        <v>174.692738652656</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L14" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W14" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X14" t="n">
-        <v>580.0300086977657</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y14" t="n">
-        <v>174.692738652656</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5345,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M15" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N15" t="n">
-        <v>205.6899987133984</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O15" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P15" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q15" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989122</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782816</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734057</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L17" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M17" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N17" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O17" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924753</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336857</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O18" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>315.615903911738</v>
+        <v>1029.332938754694</v>
       </c>
       <c r="C19" t="n">
-        <v>143.643340790654</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D19" t="n">
-        <v>143.643340790654</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E19" t="n">
-        <v>143.643340790654</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924759</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734056</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792428</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736636</v>
       </c>
       <c r="M19" t="n">
         <v>1074.392270743914</v>
@@ -5695,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.43685720741</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U19" t="n">
-        <v>1531.252408707715</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V19" t="n">
-        <v>1249.540941315744</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W19" t="n">
-        <v>974.6885374882565</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="X19" t="n">
-        <v>732.1246409340616</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.7818726238037</v>
+        <v>1219.498907466759</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1626.123126817476</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C20" t="n">
-        <v>1199.222396830776</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D20" t="n">
-        <v>775.9297760157759</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E20" t="n">
-        <v>349.9528361636335</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>349.9528361636335</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>349.9528361636335</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>414.6879164545638</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>1059.233079720709</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.233079720709</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M20" t="n">
-        <v>1059.233079720709</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N20" t="n">
-        <v>1703.778242986855</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O20" t="n">
-        <v>2348.323406253</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P20" t="n">
-        <v>2604.222881883416</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q20" t="n">
-        <v>2604.222881883416</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2499.855587756557</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2278.93001680119</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2020.575107397602</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>1663.085692523852</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>1626.123126817476</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X20" t="n">
-        <v>1626.123126817476</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y20" t="n">
-        <v>1626.123126817476</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.2079486691235</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>501.7020451866283</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>397.8620867019134</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>293.1601529748506</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>199.5143226577547</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4605508753587</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L21" t="n">
-        <v>696.6296209038139</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M21" t="n">
-        <v>1216.226924952033</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N21" t="n">
-        <v>1216.226924952033</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O21" t="n">
-        <v>1860.772088218178</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1779.447840779433</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1637.567905077111</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.799708996748</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1247.826570136014</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.305192969231</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>887.8278467358939</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>748.1349580891863</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>891.7007434103356</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>719.7281802892516</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>556.4114074160223</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>390.2032015688758</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>218.3414273434362</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>52.08445763766833</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>52.08445763766833</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5757858618263</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>336.1033870676636</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>690.7927083620843</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1081.978503332335</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.470014208371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1814.898142888134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.497354810035</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>2107.337248206312</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V22" t="n">
-        <v>1825.625780814341</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W22" t="n">
-        <v>1550.773376986854</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X22" t="n">
-        <v>1308.209480432659</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y22" t="n">
-        <v>1081.866712122401</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2280.725602741752</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C23" t="n">
-        <v>1853.824872755053</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D23" t="n">
-        <v>1430.532251940053</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E23" t="n">
-        <v>1004.55531208791</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F23" t="n">
-        <v>579.4311302773107</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>421.761699880989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>123.8933213550239</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>451.5999089153906</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>1167.10821689089</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>2096.733264510166</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M23" t="n">
-        <v>3101.019365929224</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>4077.270424415925</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O23" t="n">
-        <v>4449.822504924753</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P23" t="n">
-        <v>4449.822504924753</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q23" t="n">
-        <v>4449.822504924753</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4345.455210797893</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>4124.529639842526</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>3866.174730438938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>3508.685315565188</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>3112.293965865535</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X23" t="n">
-        <v>2700.573967033282</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y23" t="n">
-        <v>2700.573967033282</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M24" t="n">
-        <v>1144.98298807454</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N24" t="n">
-        <v>1144.98298807454</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O24" t="n">
-        <v>1897.684080679005</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>928.6127358711623</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C25" t="n">
-        <v>756.6401727500782</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D25" t="n">
-        <v>593.323399876849</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E25" t="n">
-        <v>427.1151940297025</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F25" t="n">
-        <v>255.2534198042629</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>88.99645009849506</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>88.99645009849506</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>146.4877783226531</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>373.0153795284903</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>727.704700822911</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1118.890495793162</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1496.382006669198</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1851.810135348961</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2142.409347270861</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2269.409477511623</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2222.370864198796</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2222.370864198796</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>1979.031516424696</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U25" t="n">
-        <v>1979.031516424696</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V25" t="n">
-        <v>1862.537773275168</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.685369447681</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X25" t="n">
-        <v>1345.121472893486</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.778704583228</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>894.6915758509472</v>
+        <v>1546.707978767258</v>
       </c>
       <c r="C26" t="n">
-        <v>467.7908458642473</v>
+        <v>1119.807248780558</v>
       </c>
       <c r="D26" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.7672188505812</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L26" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N26" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O26" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V26" t="n">
-        <v>1867.421837588626</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="W26" t="n">
-        <v>1867.421837588626</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="X26" t="n">
-        <v>1719.877210187587</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.539940142477</v>
+        <v>1966.556343058788</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6293,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="L27" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M27" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6391,7 +6393,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N28" t="n">
         <v>1451.88378161995</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U28" t="n">
-        <v>1934.533291375449</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V28" t="n">
-        <v>1652.821823983478</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.821823983478</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.792697513689</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.891967526989</v>
+        <v>1318.730042116722</v>
       </c>
       <c r="D29" t="n">
         <v>895.5993467119897</v>
@@ -6449,64 +6451,64 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>407.101683866143</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L29" t="n">
-        <v>407.101683866143</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M29" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N29" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O29" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X29" t="n">
-        <v>2165.64106180522</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="Y29" t="n">
-        <v>2165.64106180522</v>
+        <v>1745.630772103422</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7093087981016</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="L30" t="n">
-        <v>287.7093087981016</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="M30" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N30" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.679347573484</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H31" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6643,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T31" t="n">
-        <v>1786.751981150003</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U31" t="n">
-        <v>1786.751981150003</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V31" t="n">
-        <v>1786.751981150003</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.751981150003</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>1145.599036189027</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>591.614269593831</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C32" t="n">
-        <v>591.614269593831</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D32" t="n">
-        <v>591.614269593831</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E32" t="n">
-        <v>591.614269593831</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>166.4900877832312</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L32" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="M32" t="n">
+        <v>595.1637600336855</v>
+      </c>
+      <c r="N32" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M32" t="n">
-        <v>1556.689382596036</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1556.689382596036</v>
-      </c>
       <c r="O32" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2122.397135447853</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2122.397135447853</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2122.397135447853</v>
       </c>
       <c r="W32" t="n">
-        <v>1828.519902762723</v>
+        <v>1726.005785748199</v>
       </c>
       <c r="X32" t="n">
-        <v>1416.799903930471</v>
+        <v>1726.005785748199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1011.462633885361</v>
+        <v>1320.668515703089</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="L33" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N33" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O33" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
         <v>1853.185855629757</v>
@@ -6835,25 +6837,25 @@
         <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6865,7 +6867,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
         <v>1451.88378161995</v>
@@ -6883,19 +6885,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V34" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>1764.398243894584</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
         <v>1544.188084595808</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>894.6915758509472</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C35" t="n">
-        <v>467.7908458642473</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D35" t="n">
-        <v>44.49822504924753</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L35" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M35" t="n">
-        <v>455.3583126271592</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
-        <v>1006.023847611597</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O35" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2131.59720901984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2131.59720901984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>2131.59720901984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>2131.59720901984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>1719.877210187587</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y35" t="n">
-        <v>1314.539940142477</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L36" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M36" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N36" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O36" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7090,7 +7092,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7120,19 +7122,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2177.872639149549</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T37" t="n">
-        <v>1934.533291375449</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U37" t="n">
-        <v>1934.533291375449</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V37" t="n">
-        <v>1652.821823983478</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.821823983478</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
         <v>1544.188084595808</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.668515703089</v>
+        <v>129.7575605932203</v>
       </c>
       <c r="C38" t="n">
-        <v>893.7677857163897</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>957.7672188505812</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L38" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M38" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N38" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O38" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P38" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V38" t="n">
-        <v>2152.236878826872</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W38" t="n">
-        <v>2152.236878826872</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X38" t="n">
-        <v>1740.51687999462</v>
+        <v>954.9431949298601</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.51687999462</v>
+        <v>549.6059248847504</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M39" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N39" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7339,7 +7341,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
         <v>1451.88378161995</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>1774.591756481815</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1774.591756481815</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>685.0860276212353</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.689568770218</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.788838783518</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D41" t="n">
-        <v>930.4962179685185</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E41" t="n">
-        <v>504.5192781163761</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M41" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N41" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.460330650772</v>
       </c>
       <c r="X41" t="n">
-        <v>2224.911252462377</v>
+        <v>1738.74033181852</v>
       </c>
       <c r="Y41" t="n">
-        <v>2200.537933061748</v>
+        <v>1738.74033181852</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7478,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L42" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M42" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N42" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C43" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D43" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E43" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F43" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7591,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.144243260665</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2015.0091957798</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T43" t="n">
-        <v>1771.6698480057</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U43" t="n">
-        <v>1771.6698480057</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V43" t="n">
-        <v>1771.6698480057</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.817444178213</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X43" t="n">
-        <v>1254.253547624018</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y43" t="n">
-        <v>1027.91077931376</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="C44" t="n">
-        <v>1418.698893054637</v>
+        <v>1214.362747989862</v>
       </c>
       <c r="D44" t="n">
-        <v>995.4062722396372</v>
+        <v>1214.362747989862</v>
       </c>
       <c r="E44" t="n">
-        <v>569.4293323874948</v>
+        <v>788.3858081377197</v>
       </c>
       <c r="F44" t="n">
-        <v>144.305150576895</v>
+        <v>363.2616263271199</v>
       </c>
       <c r="G44" t="n">
-        <v>144.305150576895</v>
+        <v>363.2616263271199</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L45" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M45" t="n">
-        <v>36.91199246082674</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N45" t="n">
-        <v>493.6978991635576</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O45" t="n">
-        <v>950.4838058662885</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1407.269712569019</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
-        <v>181.710741931019</v>
+        <v>571.1852249800521</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290794</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>372.8619081923508</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>177.813198534673</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>543.0285850494892</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>181.7107419310186</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>97.94106200967607</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M11" t="n">
-        <v>181.710741931019</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>455.7096961566975</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876112</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263938</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N15" t="n">
-        <v>184.1630016116738</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517276</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M17" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>110.341181375488</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>549.8528999481832</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>686.8203212656634</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>688.3353433053002</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>688.4466798268782</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>296.0596806288333</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>673.5708071850837</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>547.9425421771955</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O21" t="n">
-        <v>674.2276101930763</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>413.7061921932237</v>
+        <v>547.9365584046769</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O24" t="n">
-        <v>783.476023666126</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,28 +9877,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M26" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>462.4589018454976</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10112,25 +10114,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10191,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>268.0669951958121</v>
+        <v>180.6729970931269</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,25 +10351,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>452.4414523720698</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O32" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,28 +10427,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>462.4589018454976</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>268.839651084701</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>87.05611188819479</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>451.1348640772358</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>549.2245073196783</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,25 +10825,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>205.799884496177</v>
       </c>
       <c r="M38" t="n">
-        <v>300.4545145390017</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>181.7107419310189</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N42" t="n">
-        <v>179.6167914733348</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>204.9191049629861</v>
       </c>
       <c r="N44" t="n">
-        <v>457.1346235160603</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
@@ -11315,10 +11317,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>181.4456529820158</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>465.5045236145516</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11455,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11467,13 +11469,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>363.1360191082666</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,10 +22555,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>355.7328124708612</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>29.2919235728374</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22613,7 +22615,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22756,19 +22758,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>84.510879711808</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>248.4240576336965</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>306.1138229995522</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283285</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23024,16 +23026,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>310.6003992484378</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23072,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>285.5910174848091</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>123.9706457695731</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -23236,7 +23238,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>348.925310093345</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23276,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>291.5335662295302</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>42.61286918175934</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>291.9803715251194</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23546,22 +23548,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>348.9253100933453</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.6064085940732</v>
+        <v>377.1543111380367</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>97.36294473060273</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919276</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>355.8344961533442</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933453</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>244.2029356940874</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>348.9253100933457</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>163.565547000018</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>49.68912764000328</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24455,10 +24457,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24497,19 +24499,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>261.5336177169016</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>132.5908555948601</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>24.49609226408009</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.1603061561650065</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24743,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>28.16551148863076</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>279.5237276798021</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24968,7 +24970,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>117.227339401435</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877123</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>376.1660855798247</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>126.3354122377018</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -25217,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>132.5908555948601</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>338.2249804982998</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -25448,16 +25450,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>281.9668908258638</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>106.2309441183563</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.0386224215062</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>280.2081081315254</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.1543111380362</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.198888070005083</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>114.1895583998069</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>188.5704682057979</v>
+        <v>13.86183001957539</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482824.7457968012</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482824.7457968012</v>
+        <v>482824.7457968009</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482824.7457968012</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482824.7457968012</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.745796801</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>524567.9094418979</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>727675.7529992781</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.745796801</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482824.745796801</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.745796801</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482824.7457968012</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482824.7457968012</v>
+        <v>482824.745796801</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428495.7036657454</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>110117.9244799721</v>
       </c>
       <c r="C2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="D2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="E2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="F2" t="n">
         <v>110117.9244799721</v>
       </c>
       <c r="G2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="H2" t="n">
-        <v>119638.2951358714</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="I2" t="n">
-        <v>165961.1366489581</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="J2" t="n">
         <v>110117.9244799721</v>
@@ -26341,7 +26343,7 @@
         <v>110117.9244799721</v>
       </c>
       <c r="L2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="M2" t="n">
         <v>110117.9244799721</v>
@@ -26350,10 +26352,10 @@
         <v>110117.9244799721</v>
       </c>
       <c r="O2" t="n">
+        <v>110117.9244799721</v>
+      </c>
+      <c r="P2" t="n">
         <v>110117.9244799722</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97727.09030973136</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="C4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="D4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="E4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="F4" t="n">
         <v>458.4532502675966</v>
       </c>
       <c r="G4" t="n">
+        <v>458.4532502675966</v>
+      </c>
+      <c r="H4" t="n">
         <v>458.4532502675965</v>
       </c>
-      <c r="H4" t="n">
-        <v>503.2855860068033</v>
-      </c>
       <c r="I4" t="n">
-        <v>721.4242759980285</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="J4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="K4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="L4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="M4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="N4" t="n">
         <v>458.4532502675966</v>
       </c>
       <c r="O4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="P4" t="n">
-        <v>400.1036273708401</v>
+        <v>458.4532502675964</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>39584.18780462793</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>67637.30207485624</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-144191.5132224608</v>
       </c>
       <c r="C6" t="n">
-        <v>42213.22019227644</v>
+        <v>42213.22019227636</v>
       </c>
       <c r="D6" t="n">
-        <v>42213.22019227644</v>
+        <v>42213.22019227645</v>
       </c>
       <c r="E6" t="n">
-        <v>75840.82019227646</v>
+        <v>75840.82019227643</v>
       </c>
       <c r="F6" t="n">
         <v>75840.82019227643</v>
       </c>
       <c r="G6" t="n">
-        <v>75840.82019227644</v>
+        <v>75840.82019227641</v>
       </c>
       <c r="H6" t="n">
-        <v>53965.39888962139</v>
+        <v>75840.8201922764</v>
       </c>
       <c r="I6" t="n">
-        <v>-25093.51404159002</v>
+        <v>75840.82019227635</v>
       </c>
       <c r="J6" t="n">
-        <v>75840.82019227643</v>
+        <v>-69692.84974254004</v>
       </c>
       <c r="K6" t="n">
         <v>75840.82019227643</v>
@@ -26552,16 +26554,16 @@
         <v>75840.82019227644</v>
       </c>
       <c r="M6" t="n">
-        <v>75840.82019227641</v>
+        <v>75840.82019227638</v>
       </c>
       <c r="N6" t="n">
-        <v>75840.82019227643</v>
+        <v>75840.8201922764</v>
       </c>
       <c r="O6" t="n">
-        <v>75840.82019227644</v>
+        <v>75840.8201922764</v>
       </c>
       <c r="P6" t="n">
-        <v>69273.87241213219</v>
+        <v>75840.82019227647</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="H4" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="I4" t="n">
-        <v>1112.455626231188</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
-        <v>144.2794790315872</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>75.42597529544652</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M11" t="n">
-        <v>144.2794790315872</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.5378064344753</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>533.7539620806207</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N15" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127089</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M17" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>73.06155854104202</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P20" t="n">
-        <v>258.484318818602</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>524.8457616648675</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O21" t="n">
-        <v>651.0557204708541</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>376.3152328371996</v>
+        <v>510.5455990486528</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439038</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M26" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>144.2794790315872</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>245.6677613624788</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>415.010189472638</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>167.4878420635541</v>
       </c>
       <c r="M38" t="n">
-        <v>263.0232516395698</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>158.2737632597931</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>533.7539620806207</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N42" t="n">
-        <v>158.2737632597932</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="N44" t="n">
-        <v>419.8550006816143</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38187,13 +38189,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>340.6368316098421</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292183.9663971552</v>
+        <v>287023.5738515065</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9135685.687344907</v>
+        <v>9135685.687344901</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5582961.889031195</v>
+        <v>5582961.889031198</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -667,13 +667,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>74.03169761275359</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>92.38090300811142</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>42.31046081014942</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>57.8330004641482</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>86.31361320310437</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1119,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>7.441938898131447</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>246.7223411005973</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>106.8364187178475</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>205.7728253711825</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1372,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>71.94762989914871</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>147.8279638213677</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.2633455906804</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>121.9815308269508</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>58.67748875058492</v>
+        <v>223.5022607669828</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,25 +1846,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>154.248393911243</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.12958620662185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>72.88989275927041</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155071</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>58.67748875058538</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2323,22 +2323,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>247.9768200949831</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.3705669668464</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>52.71918897248193</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -2614,16 +2614,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>199.5832483630753</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>418.8993884506847</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>174.1795063654953</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160.0987975363142</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>101.4889758443782</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>99.42411876446968</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>115.105571630339</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>24.12958620662116</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>62.98764959611525</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.1055716303386</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,16 +3505,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>84.40674218853306</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>80.02531409275974</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>58.31517967031871</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>37.39972735518565</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>73.70641259348758</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>164.7047943182444</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914915</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>281.0278647211301</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2150.131759924241</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.231029937541</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N2" t="n">
-        <v>2224.911252462376</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2150.131759924241</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2150.131759924241</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2150.131759924241</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2150.131759924241</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>2150.131759924241</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.131759924241</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="Y2" t="n">
-        <v>2150.131759924241</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K3" t="n">
-        <v>866.8612493132766</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L3" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>597.3273713037102</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>425.3548081826261</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>425.3548081826261</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1256.400004880229</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1013.836108326034</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>787.4933400157757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.668515703089</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>893.7677857163897</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D5" t="n">
-        <v>470.47516490139</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>572.9146475090618</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2137.725784580452</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1726.005785748199</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.668515703089</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751884</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1389.040378766978</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>720.7977379486855</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1299.938409122541</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.938409122541</v>
+        <v>718.8368928200466</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>718.8368928200466</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.26943807629</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.26943807629</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>2116.995677999903</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>1705.275679167651</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="Y8" t="n">
-        <v>1299.938409122541</v>
+        <v>1145.737622806746</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608814</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>382.616968980455</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1041.689602556973</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>799.1257060027785</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>572.7829376925206</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1393.342889338593</v>
+        <v>1042.236203251986</v>
       </c>
       <c r="C11" t="n">
-        <v>966.4421593518935</v>
+        <v>1042.236203251986</v>
       </c>
       <c r="D11" t="n">
-        <v>543.1495385368937</v>
+        <v>618.9435824369864</v>
       </c>
       <c r="E11" t="n">
-        <v>117.1725986847513</v>
+        <v>618.9435824369864</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>193.8194006263866</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M11" t="n">
-        <v>1556.689382596035</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630123</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="Y11" t="n">
-        <v>1813.191253630123</v>
+        <v>1462.084567543516</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336855</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M12" t="n">
-        <v>751.8547856608812</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N12" t="n">
-        <v>751.8547856608812</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505.7818726238041</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7818726238041</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>505.7818726238041</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>339.5736667766577</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>167.7118925512181</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
         <v>1074.392270743914</v>
@@ -5229,7 +5229,7 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1811.436857207411</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
         <v>1531.252408707715</v>
@@ -5238,13 +5238,13 @@
         <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>974.688537488257</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X13" t="n">
-        <v>732.1246409340621</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y13" t="n">
-        <v>505.7818726238041</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.792697513689</v>
+        <v>872.1299082747987</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.891967526989</v>
+        <v>872.1299082747987</v>
       </c>
       <c r="D14" t="n">
-        <v>895.5993467119897</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>957.7672188505811</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N14" t="n">
-        <v>957.7672188505811</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O14" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.64106180522</v>
+        <v>1277.467178319908</v>
       </c>
       <c r="Y14" t="n">
-        <v>2165.64106180522</v>
+        <v>872.1299082747987</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K15" t="n">
-        <v>316.1957143288386</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L15" t="n">
-        <v>751.8547856608812</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O15" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q15" t="n">
         <v>1853.185855629757</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734057</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.689568770218</v>
+        <v>1030.620685808146</v>
       </c>
       <c r="C17" t="n">
-        <v>1353.788838783518</v>
+        <v>1030.620685808146</v>
       </c>
       <c r="D17" t="n">
-        <v>930.4962179685185</v>
+        <v>1030.620685808146</v>
       </c>
       <c r="E17" t="n">
-        <v>504.5192781163761</v>
+        <v>604.643745956004</v>
       </c>
       <c r="F17" t="n">
-        <v>79.39509630577632</v>
+        <v>604.643745956004</v>
       </c>
       <c r="G17" t="n">
-        <v>79.39509630577632</v>
+        <v>200.3046835454526</v>
       </c>
       <c r="H17" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N17" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O17" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462376</v>
+        <v>1450.469050099676</v>
       </c>
       <c r="Y17" t="n">
-        <v>2200.537933061748</v>
+        <v>1450.469050099676</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>838.3748437825399</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.332938754694</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734056</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792428</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736636</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>2007.737591668684</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U19" t="n">
-        <v>1727.553143168989</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.841675777017</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.841675777017</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>1445.841675777017</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>1219.498907466759</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5740,61 +5740,61 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M20" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N20" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O20" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y20" t="n">
         <v>2165.64106180522</v>
@@ -5819,34 +5819,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336855</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1745.792697513689</v>
+        <v>1479.77002308862</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.891967526989</v>
+        <v>1052.86929310192</v>
       </c>
       <c r="D23" t="n">
-        <v>895.5993467119897</v>
+        <v>1052.86929310192</v>
       </c>
       <c r="E23" t="n">
-        <v>469.6224068598473</v>
+        <v>1052.86929310192</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>627.7451112913204</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N23" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O23" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X23" t="n">
-        <v>2165.64106180522</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y23" t="n">
-        <v>2165.64106180522</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="24">
@@ -6050,40 +6050,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M24" t="n">
-        <v>595.1637600336854</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N24" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O24" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V25" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W25" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.707978767258</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="C26" t="n">
-        <v>1119.807248780558</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="D26" t="n">
-        <v>746.7056659857641</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="E26" t="n">
-        <v>746.7056659857641</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="F26" t="n">
-        <v>746.7056659857641</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="G26" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.7672188505811</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M26" t="n">
-        <v>2059.098288819457</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N26" t="n">
-        <v>2224.911252462376</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O26" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>1966.556343058788</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V26" t="n">
-        <v>1966.556343058788</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W26" t="n">
-        <v>1966.556343058788</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X26" t="n">
-        <v>1966.556343058788</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y26" t="n">
-        <v>1966.556343058788</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="27">
@@ -6293,28 +6293,28 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>751.8547856608812</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C28" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D28" t="n">
-        <v>692.6214433194471</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4132374723006</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F28" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6393,7 +6393,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N28" t="n">
         <v>1451.88378161995</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U28" t="n">
-        <v>1701.38745618858</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V28" t="n">
-        <v>1419.675988796609</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.675988796609</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.675988796609</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.630772103422</v>
+        <v>1652.581007444041</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.730042116722</v>
+        <v>1225.680277457341</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M29" t="n">
-        <v>1006.023847611597</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N29" t="n">
-        <v>1006.023847611597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O29" t="n">
-        <v>1556.689382596035</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U29" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.630772103422</v>
+        <v>2048.972357143694</v>
       </c>
       <c r="W29" t="n">
-        <v>1745.630772103422</v>
+        <v>1652.581007444041</v>
       </c>
       <c r="X29" t="n">
-        <v>1745.630772103422</v>
+        <v>1652.581007444041</v>
       </c>
       <c r="Y29" t="n">
-        <v>1745.630772103422</v>
+        <v>1652.581007444041</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>201.1892506764432</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>201.1892506764432</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M30" t="n">
-        <v>751.8547856608812</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N30" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O30" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.8830790816388</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>811.9105159605548</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>648.5937430873255</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>482.385537240179</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1944.72680396268</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1663.015336570709</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1388.162932743222</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1145.599036189027</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>1145.599036189027</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336855</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O32" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2122.397135447853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U32" t="n">
-        <v>2122.397135447853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V32" t="n">
-        <v>2122.397135447853</v>
+        <v>2124.482849669983</v>
       </c>
       <c r="W32" t="n">
-        <v>1726.005785748199</v>
+        <v>1728.09149997033</v>
       </c>
       <c r="X32" t="n">
-        <v>1726.005785748199</v>
+        <v>1316.371501138077</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.668515703089</v>
+        <v>1316.371501138077</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>751.8547856608812</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N33" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524003</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>792.390011579171</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6867,7 +6867,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
         <v>1451.88378161995</v>
@@ -6882,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2177.872639149549</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>2177.872639149549</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>2177.872639149549</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1805.062888170846</v>
+        <v>2056.920069854592</v>
       </c>
       <c r="C35" t="n">
-        <v>1378.162158184146</v>
+        <v>1630.019339867893</v>
       </c>
       <c r="D35" t="n">
-        <v>954.869537369146</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="E35" t="n">
-        <v>528.8925975170035</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F35" t="n">
-        <v>103.7684157064037</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G35" t="n">
-        <v>79.39509630577631</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O35" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1696.494830002561</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2056.920069854592</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>2056.920069854592</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>2056.920069854592</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>2056.920069854592</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462376</v>
+        <v>2056.920069854592</v>
       </c>
       <c r="Y35" t="n">
-        <v>2224.911252462376</v>
+        <v>2056.920069854592</v>
       </c>
     </row>
     <row r="36">
@@ -6998,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>201.1892506764434</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M36" t="n">
-        <v>751.8547856608814</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N36" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O36" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2061.60438497749</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>2061.60438497749</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>2061.60438497749</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>129.7575605932203</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="C38" t="n">
-        <v>44.49822504924752</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D38" t="n">
-        <v>44.49822504924752</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
         <v>1123.5801824935</v>
@@ -7186,40 +7186,40 @@
         <v>1674.245717477938</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U38" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V38" t="n">
-        <v>1763.054543461766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W38" t="n">
-        <v>1366.663193762113</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X38" t="n">
-        <v>954.9431949298601</v>
+        <v>2144.077601863629</v>
       </c>
       <c r="Y38" t="n">
-        <v>549.6059248847504</v>
+        <v>1738.74033181852</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608812</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M39" t="n">
-        <v>751.8547856608812</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N39" t="n">
-        <v>751.8547856608812</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
         <v>1853.185855629757</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>685.0860276212353</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>685.0860276212353</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>685.0860276212353</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734056</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M40" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>685.0860276212353</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1318.891967526989</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.891967526989</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>117.1725986847517</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.603903091852</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O41" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V41" t="n">
-        <v>2150.460330650772</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W41" t="n">
-        <v>2150.460330650772</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.74033181852</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.74033181852</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1317.84531628555</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1317.84531628555</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>1317.84531628555</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1641.263477976562</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.362747989862</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D44" t="n">
-        <v>1214.362747989862</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E44" t="n">
-        <v>788.3858081377197</v>
+        <v>117.1725986847517</v>
       </c>
       <c r="F44" t="n">
-        <v>363.2616263271199</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G44" t="n">
-        <v>363.2616263271199</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V44" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W44" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X44" t="n">
-        <v>1641.263477976562</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y44" t="n">
-        <v>1641.263477976562</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="45">
@@ -7715,31 +7715,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>595.1637600336855</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M45" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N45" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O45" t="n">
         <v>1853.185855629757</v>
@@ -7794,43 +7794,43 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734056</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M46" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S46" t="n">
         <v>2127.492863465543</v>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>571.1852249800521</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>183.4310877314655</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>549.9687528290794</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8081,7 +8081,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132433</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>543.0285850494892</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>181.7107419310186</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721218</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>259.4889279983318</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>84.50867025038097</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500401</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
@@ -8713,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8774,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3705437721216</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204227</v>
+        <v>89.67495492258647</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O14" t="n">
-        <v>181.6704383876112</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>260.5451336181234</v>
       </c>
       <c r="L15" t="n">
-        <v>462.5747547263938</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,10 +9023,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517276</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N17" t="n">
-        <v>110.341181375488</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>549.8528999481832</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482169</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291356</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646222</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O23" t="n">
-        <v>547.9365584046769</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9877,28 +9877,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482169</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>204.7674648980005</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>462.4589018454976</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10114,28 +10114,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>84.50867025038097</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>180.6729970931269</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M30" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150258</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O32" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>462.4589018454976</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10445,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>451.1348640772358</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10825,19 +10825,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>205.799884496177</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10898,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>180.7888499740232</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>181.7107419310189</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>180.7888499740232</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>204.9191049629861</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500401</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
@@ -11372,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M45" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>181.4456529820158</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2919235728374</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22609,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>300.0465331945451</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>122.2356629785256</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>363.8841699894728</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>306.1138229995522</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22950,19 +22950,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283285</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>232.6963186905215</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,19 +23023,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>174.9948293530237</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>285.5910174848091</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23181,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,19 +23229,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>66.33105441802959</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>348.925310093345</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>252.4677079650782</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23317,16 +23317,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919274</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>42.61286918175934</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -23557,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>348.9253100933453</v>
+        <v>184.1005380769474</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>140.6413008294626</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.1543111380367</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>97.36294473060273</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>71.98949189919171</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>348.9253100933453</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>342.6064085940732</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>152.3188516914627</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
@@ -24271,7 +24271,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>348.9253100933457</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>49.68912764000328</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24457,7 +24457,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>347.5764828139639</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.5577190788913</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.49609226408009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1603061561650065</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>179.7350143595177</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.16551148863076</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24970,22 +24970,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>117.227339401435</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>254.4904019605433</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>163.7887810877123</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>376.1660855798247</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>155.7286656496979</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>53.3281253757179</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>338.2249804982998</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -25450,13 +25450,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>327.5774847511705</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>106.2309441183563</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>383.4732126373081</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25648,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>280.2081081315254</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1895583998069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>348.9253100933446</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>13.86183001957539</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482824.7457968009</v>
+        <v>482824.7457968012</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.7457968012</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482824.745796801</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.7457968012</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482824.745796801</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482824.745796801</v>
+        <v>482824.7457968011</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.7457968013</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482824.745796801</v>
+        <v>482824.7457968012</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482824.7457968011</v>
+        <v>482824.7457968013</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>110117.9244799721</v>
       </c>
       <c r="C2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="D2" t="n">
         <v>110117.9244799721</v>
@@ -26328,31 +26328,31 @@
         <v>110117.9244799721</v>
       </c>
       <c r="G2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="H2" t="n">
         <v>110117.9244799721</v>
       </c>
       <c r="I2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="J2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="K2" t="n">
         <v>110117.9244799721</v>
       </c>
       <c r="L2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="M2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="N2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="O2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="P2" t="n">
         <v>110117.9244799722</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="C4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="D4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="E4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="F4" t="n">
         <v>458.4532502675966</v>
@@ -26435,31 +26435,31 @@
         <v>458.4532502675966</v>
       </c>
       <c r="H4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="I4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="J4" t="n">
         <v>458.4532502675965</v>
       </c>
       <c r="K4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="L4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="M4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="N4" t="n">
         <v>458.4532502675966</v>
       </c>
       <c r="O4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="P4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144191.5132224608</v>
+        <v>-144800.5589349505</v>
       </c>
       <c r="C6" t="n">
-        <v>42213.22019227636</v>
+        <v>41604.17447978679</v>
       </c>
       <c r="D6" t="n">
-        <v>42213.22019227645</v>
+        <v>41604.17447978674</v>
       </c>
       <c r="E6" t="n">
-        <v>75840.82019227643</v>
+        <v>75231.77447978676</v>
       </c>
       <c r="F6" t="n">
-        <v>75840.82019227643</v>
+        <v>75231.77447978675</v>
       </c>
       <c r="G6" t="n">
-        <v>75840.82019227641</v>
+        <v>75231.77447978685</v>
       </c>
       <c r="H6" t="n">
-        <v>75840.8201922764</v>
+        <v>75231.77447978676</v>
       </c>
       <c r="I6" t="n">
-        <v>75840.82019227635</v>
+        <v>75231.77447978679</v>
       </c>
       <c r="J6" t="n">
-        <v>-69692.84974254004</v>
+        <v>-70301.89545502973</v>
       </c>
       <c r="K6" t="n">
-        <v>75840.82019227643</v>
+        <v>75231.77447978676</v>
       </c>
       <c r="L6" t="n">
-        <v>75840.82019227644</v>
+        <v>75231.77447978678</v>
       </c>
       <c r="M6" t="n">
-        <v>75840.82019227638</v>
+        <v>75231.77447978679</v>
       </c>
       <c r="N6" t="n">
-        <v>75840.8201922764</v>
+        <v>75231.77447978682</v>
       </c>
       <c r="O6" t="n">
-        <v>75840.8201922764</v>
+        <v>75231.77447978684</v>
       </c>
       <c r="P6" t="n">
-        <v>75840.82019227647</v>
+        <v>75231.77447978681</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>519.9318045371612</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597939</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N11" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O12" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P12" t="n">
-        <v>556.227813115594</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O14" t="n">
-        <v>144.2794790315871</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="L15" t="n">
-        <v>440.0596680121643</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127089</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N17" t="n">
-        <v>73.06155854104202</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N21" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O23" t="n">
-        <v>510.5455990486528</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M26" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>440.0596680121643</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N27" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M30" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N32" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>440.0596680121643</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>415.0101894726378</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>167.4878420635541</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O38" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>144.2794790315871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>167.4878420635542</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N44" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M45" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N45" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
